--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shong/Dropbox/Energy Innovation/InputData_RevisionRequest/fuels/BFPIaE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\fuels\BFPIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17D58B6-92CA-3644-93E7-655878C5C77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F8E8A0-3D8F-4C7F-8709-2DE1406EBC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20940" yWindow="1020" windowWidth="29040" windowHeight="15840" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
-    <sheet name="Coal" sheetId="28" r:id="rId2"/>
-    <sheet name="hydrogen" sheetId="29" r:id="rId3"/>
-    <sheet name="KEEI&amp;MOTIE" sheetId="22" r:id="rId4"/>
-    <sheet name="Calculations" sheetId="24" r:id="rId5"/>
-    <sheet name="BFPIaE-production" sheetId="12" r:id="rId6"/>
-    <sheet name="BFPIaE-imports" sheetId="19" r:id="rId7"/>
-    <sheet name="BFPIaE-exports" sheetId="13" r:id="rId8"/>
+    <sheet name="hydrogen" sheetId="29" r:id="rId2"/>
+    <sheet name="KEEI&amp;MOTIE" sheetId="22" r:id="rId3"/>
+    <sheet name="Calculations" sheetId="24" r:id="rId4"/>
+    <sheet name="BFPIaE-production" sheetId="12" r:id="rId5"/>
+    <sheet name="BFPIaE-imports" sheetId="19" r:id="rId6"/>
+    <sheet name="BFPIaE-exports" sheetId="13" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="gal_per_barrel">[1]About!$A$63</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="129">
   <si>
     <t>Source:</t>
   </si>
@@ -339,9 +338,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>총 공급</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -406,94 +402,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>통계표명:</t>
-  </si>
-  <si>
-    <t>국내 석탄(무연탄)수급 동향</t>
-  </si>
-  <si>
-    <t>단위:</t>
-  </si>
-  <si>
-    <t>천톤</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>생산</t>
-  </si>
-  <si>
-    <t>소비</t>
-  </si>
-  <si>
-    <t>연탄용소비</t>
-  </si>
-  <si>
-    <t>발전용소비</t>
-  </si>
-  <si>
-    <t>산업용소비</t>
-  </si>
-  <si>
-    <t>재고</t>
-  </si>
-  <si>
-    <t>정부비축</t>
-  </si>
-  <si>
-    <t>출처:</t>
-  </si>
-  <si>
-    <t>산업통상자원부「광물생산보고서」</t>
-  </si>
-  <si>
-    <t>주석:</t>
-  </si>
-  <si>
-    <t>* 재고 : 정부비축량 + 석탄 생산업체 및 연탄공장 재고량</t>
-  </si>
-  <si>
     <t>1000 tons to BTU (coal)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.index.go.kr/potal/main/EachDtlPageDetail.do?idx_cd=1166</t>
-  </si>
-  <si>
-    <t>2011-2019</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal production</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>production</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -509,10 +418,6 @@
   </si>
   <si>
     <t>Notes :</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORECASTED</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -612,15 +517,21 @@
   <si>
     <t>Seoul Daily</t>
   </si>
+  <si>
+    <t xml:space="preserve">Our input output data </t>
+  </si>
+  <si>
+    <t>Coal production today is close to 0. We use a value of zero for all years, since our OECD source data for</t>
+  </si>
+  <si>
+    <t>the input output files shows 0 output for the oil and gas mining industries.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_ "/>
-  </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,14 +656,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,32 +688,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -887,21 +768,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -956,7 +822,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1010,26 +876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="20"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="20" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="20" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="20" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="8" xfId="20" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1042,10 +888,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
@@ -1441,282 +1283,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="82.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="42"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="34"/>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
+      <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="B12" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:2">
       <c r="B16" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="8">
+    <row r="18" spans="1:3">
+      <c r="B18" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="8">
         <f>39656668.31*(10^3)</f>
         <v>39656668310</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="8">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="8">
         <f>39656668.31*(10^6)</f>
         <v>39656668310000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="8">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="8">
         <f>1.306*39656668.31</f>
         <v>51791608.812860005</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="8">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="8">
         <f xml:space="preserve"> 1000 * 141.9 * 947.81707774915</f>
         <v>134495243.33260438</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="8">
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="8">
         <f xml:space="preserve"> 27778243.7878409 * 1000</f>
         <v>27778243787.8409</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="41"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="41"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="42"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="41"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="41"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="41"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="43"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="41"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="42"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="41"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="41"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="41"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="43"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="43"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="42"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="41"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="41"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="41"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="44"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="41"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="41"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="42"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="41"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="41"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="41"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="41"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="41"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="41"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="42"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="41"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="41"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="41"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="43"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="31"/>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="33"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="33"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="34"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="33"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="33"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="33"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="35"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="33"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="34"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="33"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="33"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="33"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="35"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="35"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="34"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="33"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="33"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="33"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="36"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="33"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="33"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="34"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="33"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="33"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="33"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="33"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="33"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="33"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="34"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="33"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="33"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="33"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="35"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{4416EC2C-B904-4986-BA1E-23DDFA517FE5}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{5A1A1E61-88C9-4137-93A8-AC0E3EC6F4B5}"/>
-    <hyperlink ref="B23" r:id="rId3" xr:uid="{9FDE2EC0-5855-4CBC-BB81-DACB06ED8563}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{4416EC2C-B904-4986-BA1E-23DDFA517FE5}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{5A1A1E61-88C9-4137-93A8-AC0E3EC6F4B5}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{9FDE2EC0-5855-4CBC-BB81-DACB06ED8563}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1724,630 +1566,555 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9BE97E-A9ED-4616-A18E-D1BEA2ABF11B}">
-  <dimension ref="A1:AZ15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E019130D-51AB-4364-AAC6-DB029A491610}">
+  <dimension ref="B2:AH16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="35" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="V2" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="W2" s="48"/>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="34" t="s">
+    <row r="2" spans="2:34">
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
+      </c>
+      <c r="E3">
+        <v>2020</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3">
+        <v>30000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3">
+        <v>2023</v>
+      </c>
+      <c r="N3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34">
+      <c r="B4" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="C4">
+        <v>1923942</v>
+      </c>
+      <c r="D4">
+        <v>1962427</v>
+      </c>
+      <c r="E4">
+        <v>1978632</v>
+      </c>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4">
+        <v>10000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="8">
+        <f>( (I3*About!$C$27)+(I4*About!$C$27) )/2</f>
+        <v>2689904866652.0874</v>
+      </c>
+      <c r="N4" s="8">
+        <f>M4*2</f>
+        <v>5379809733304.1748</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34">
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34">
+      <c r="F8" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3">
-        <v>2011</v>
-      </c>
-      <c r="N3">
-        <v>2012</v>
-      </c>
-      <c r="O3" s="11">
-        <v>2013</v>
-      </c>
-      <c r="P3" s="11">
-        <v>2014</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>2015</v>
-      </c>
-      <c r="R3" s="11">
-        <v>2016</v>
-      </c>
-      <c r="S3" s="11">
-        <v>2017</v>
-      </c>
-      <c r="T3" s="11">
-        <v>2018</v>
-      </c>
-      <c r="U3" s="11">
+      <c r="G8">
+        <v>2023</v>
+      </c>
+      <c r="H8">
+        <v>2024</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2025</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2026</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2027</v>
+      </c>
+      <c r="L8" s="11">
+        <v>2028</v>
+      </c>
+      <c r="M8" s="11">
+        <v>2029</v>
+      </c>
+      <c r="N8" s="11">
+        <v>2030</v>
+      </c>
+      <c r="O8" s="11">
+        <v>2031</v>
+      </c>
+      <c r="P8" s="11">
+        <v>2032</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>2033</v>
+      </c>
+      <c r="R8" s="11">
+        <v>2034</v>
+      </c>
+      <c r="S8" s="11">
+        <v>2035</v>
+      </c>
+      <c r="T8" s="11">
+        <v>2036</v>
+      </c>
+      <c r="U8" s="11">
+        <v>2037</v>
+      </c>
+      <c r="V8" s="11">
+        <v>2038</v>
+      </c>
+      <c r="W8" s="11">
+        <v>2039</v>
+      </c>
+      <c r="X8" s="11">
+        <v>2040</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>2041</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>2042</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>2043</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>2044</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>2045</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>2046</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>2047</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>2048</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>2049</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34">
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="8">
+        <f>$M$4</f>
+        <v>2689904866652.0874</v>
+      </c>
+      <c r="H9" s="8">
+        <f>$N$4</f>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" ref="I9:AH9" si="0">$N$4</f>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="S9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="W9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="X9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="Z9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="AA9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="AB9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="AC9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="AD9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="AE9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="AG9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+      <c r="AH9" s="8">
+        <f t="shared" si="0"/>
+        <v>5379809733304.1748</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34">
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34">
+      <c r="B12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="11">
         <v>2019</v>
       </c>
-      <c r="V3" s="45">
+      <c r="D12" s="11">
         <v>2020</v>
       </c>
-      <c r="W3" s="45">
+      <c r="E12" s="11">
         <v>2021</v>
       </c>
-      <c r="X3" s="45">
+      <c r="F12" s="11">
         <v>2022</v>
       </c>
-      <c r="Y3" s="45">
+      <c r="G12" s="11">
         <v>2023</v>
       </c>
-      <c r="Z3" s="45">
+      <c r="H12" s="11">
         <v>2024</v>
       </c>
-      <c r="AA3" s="45">
+      <c r="I12" s="11">
         <v>2025</v>
       </c>
-      <c r="AB3" s="45">
+      <c r="J12" s="11">
         <v>2026</v>
       </c>
-      <c r="AC3" s="45">
+      <c r="K12" s="11">
         <v>2027</v>
       </c>
-      <c r="AD3" s="45">
+      <c r="L12" s="11">
         <v>2028</v>
       </c>
-      <c r="AE3" s="45">
+      <c r="M12" s="11">
         <v>2029</v>
       </c>
-      <c r="AF3" s="45">
+      <c r="N12" s="11">
         <v>2030</v>
       </c>
-      <c r="AG3" s="45">
+      <c r="O12" s="11">
         <v>2031</v>
       </c>
-      <c r="AH3" s="45">
+      <c r="P12" s="11">
         <v>2032</v>
       </c>
-      <c r="AI3" s="45">
+      <c r="Q12" s="11">
         <v>2033</v>
       </c>
-      <c r="AJ3" s="45">
+      <c r="R12" s="11">
         <v>2034</v>
       </c>
-      <c r="AK3" s="45">
+      <c r="S12" s="11">
         <v>2035</v>
       </c>
-      <c r="AL3" s="45">
+      <c r="T12" s="11">
         <v>2036</v>
       </c>
-      <c r="AM3" s="45">
+      <c r="U12" s="11">
         <v>2037</v>
       </c>
-      <c r="AN3" s="45">
+      <c r="V12" s="11">
         <v>2038</v>
       </c>
-      <c r="AO3" s="45">
+      <c r="W12" s="11">
         <v>2039</v>
       </c>
-      <c r="AP3" s="45">
+      <c r="X12" s="11">
         <v>2040</v>
       </c>
-      <c r="AQ3" s="45">
+      <c r="Y12" s="11">
         <v>2041</v>
       </c>
-      <c r="AR3" s="45">
+      <c r="Z12" s="11">
         <v>2042</v>
       </c>
-      <c r="AS3" s="45">
+      <c r="AA12" s="11">
         <v>2043</v>
       </c>
-      <c r="AT3" s="45">
+      <c r="AB12" s="11">
         <v>2044</v>
       </c>
-      <c r="AU3" s="45">
+      <c r="AC12" s="11">
         <v>2045</v>
       </c>
-      <c r="AV3" s="45">
+      <c r="AD12" s="11">
         <v>2046</v>
       </c>
-      <c r="AW3" s="45">
+      <c r="AE12" s="11">
         <v>2047</v>
       </c>
-      <c r="AX3" s="45">
+      <c r="AF12" s="11">
         <v>2048</v>
       </c>
-      <c r="AY3" s="45">
+      <c r="AG12" s="11">
         <v>2049</v>
       </c>
-      <c r="AZ3" s="45">
+      <c r="AH12" s="11">
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="39">
-        <v>2018</v>
-      </c>
-      <c r="C4" s="39">
-        <v>2094</v>
-      </c>
-      <c r="D4" s="36">
-        <v>1815</v>
-      </c>
-      <c r="E4" s="36">
-        <v>1748</v>
-      </c>
-      <c r="F4" s="36">
-        <v>1764</v>
-      </c>
-      <c r="G4" s="36">
-        <v>1726</v>
-      </c>
-      <c r="H4" s="36">
-        <v>1485</v>
-      </c>
-      <c r="I4" s="36">
-        <v>1202</v>
-      </c>
-      <c r="J4" s="36">
-        <v>1084</v>
-      </c>
-      <c r="L4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" s="7">
-        <f>B4</f>
-        <v>2018</v>
-      </c>
-      <c r="N4" s="7">
-        <f t="shared" ref="N4:U4" si="0">C4</f>
-        <v>2094</v>
-      </c>
-      <c r="O4" s="7">
-        <f t="shared" si="0"/>
-        <v>1815</v>
-      </c>
-      <c r="P4" s="7">
-        <f t="shared" si="0"/>
-        <v>1748</v>
-      </c>
-      <c r="Q4" s="7">
-        <f t="shared" si="0"/>
-        <v>1764</v>
-      </c>
-      <c r="R4" s="7">
-        <f t="shared" si="0"/>
-        <v>1726</v>
-      </c>
-      <c r="S4" s="7">
-        <f t="shared" si="0"/>
-        <v>1485</v>
-      </c>
-      <c r="T4" s="7">
-        <f t="shared" si="0"/>
-        <v>1202</v>
-      </c>
-      <c r="U4" s="7">
-        <f t="shared" si="0"/>
-        <v>1084</v>
-      </c>
-      <c r="V4" s="46">
-        <f>IF( _xlfn.FORECAST.LINEAR(V3,$M4:$U4,$M$3:$U$3)&gt;0, _xlfn.FORECAST.LINEAR(V3,$M4:$U4,$M$3:$U$3), 0)</f>
-        <v>1068.388888888876</v>
-      </c>
-      <c r="W4" s="46">
-        <f t="shared" ref="W4:AZ4" si="1">IF( _xlfn.FORECAST.LINEAR(W3,$M4:$U4,$M$3:$U$3)&gt;0, _xlfn.FORECAST.LINEAR(W3,$M4:$U4,$M$3:$U$3), 0)</f>
-        <v>950.15555555553874</v>
-      </c>
-      <c r="X4" s="46">
-        <f t="shared" si="1"/>
-        <v>831.92222222223063</v>
-      </c>
-      <c r="Y4" s="46">
-        <f t="shared" si="1"/>
-        <v>713.68888888889342</v>
-      </c>
-      <c r="Z4" s="46">
-        <f t="shared" si="1"/>
-        <v>595.4555555555562</v>
-      </c>
-      <c r="AA4" s="46">
-        <f t="shared" si="1"/>
-        <v>477.22222222221899</v>
-      </c>
-      <c r="AB4" s="46">
-        <f t="shared" si="1"/>
-        <v>358.98888888888177</v>
-      </c>
-      <c r="AC4" s="46">
-        <f t="shared" si="1"/>
-        <v>240.75555555554456</v>
-      </c>
-      <c r="AD4" s="46">
-        <f t="shared" si="1"/>
-        <v>122.52222222220735</v>
-      </c>
-      <c r="AE4" s="46">
-        <f t="shared" si="1"/>
-        <v>4.2888888888701331</v>
-      </c>
-      <c r="AF4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AR4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AS4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AT4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AU4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AW4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AX4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AY4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="39">
-        <v>2365</v>
-      </c>
-      <c r="C5" s="39">
-        <v>2424</v>
-      </c>
-      <c r="D5" s="36">
-        <v>2240</v>
-      </c>
-      <c r="E5" s="36">
-        <v>1879</v>
-      </c>
-      <c r="F5" s="36">
-        <v>1718</v>
-      </c>
-      <c r="G5" s="36">
-        <v>1495</v>
-      </c>
-      <c r="H5" s="36">
-        <v>1314</v>
-      </c>
-      <c r="I5" s="36">
-        <v>1143</v>
-      </c>
-      <c r="J5" s="36">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="39">
-        <v>1822</v>
-      </c>
-      <c r="C6" s="39">
-        <v>1833</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1917</v>
-      </c>
-      <c r="E6" s="36">
-        <v>1629</v>
-      </c>
-      <c r="F6" s="36">
-        <v>1473</v>
-      </c>
-      <c r="G6" s="36">
-        <v>1255</v>
-      </c>
-      <c r="H6" s="36">
-        <v>1079</v>
-      </c>
-      <c r="I6" s="36">
-        <v>913</v>
-      </c>
-      <c r="J6" s="36">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="38">
-        <v>543</v>
-      </c>
-      <c r="C7" s="38">
-        <v>591</v>
-      </c>
-      <c r="D7" s="36">
-        <v>323</v>
-      </c>
-      <c r="E7" s="36">
-        <v>250</v>
-      </c>
-      <c r="F7" s="36">
-        <v>245</v>
-      </c>
-      <c r="G7" s="36">
-        <v>240</v>
-      </c>
-      <c r="H7" s="36">
-        <v>235</v>
-      </c>
-      <c r="I7" s="36">
-        <v>230</v>
-      </c>
-      <c r="J7" s="36">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="38">
-        <v>0</v>
-      </c>
-      <c r="C8" s="36">
-        <v>0</v>
-      </c>
-      <c r="D8" s="36">
-        <v>0</v>
-      </c>
-      <c r="E8" s="36">
-        <v>0</v>
-      </c>
-      <c r="F8" s="36">
-        <v>0</v>
-      </c>
-      <c r="G8" s="36">
-        <v>0</v>
-      </c>
-      <c r="H8" s="36">
-        <v>0</v>
-      </c>
-      <c r="I8" s="36">
-        <v>0</v>
-      </c>
-      <c r="J8" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="39">
-        <v>1720</v>
-      </c>
-      <c r="C9" s="36">
-        <v>1628</v>
-      </c>
-      <c r="D9" s="36">
-        <v>1457</v>
-      </c>
-      <c r="E9" s="36">
-        <v>1610</v>
-      </c>
-      <c r="F9" s="36">
-        <v>1798</v>
-      </c>
-      <c r="G9" s="36">
-        <v>2151</v>
-      </c>
-      <c r="H9" s="36">
-        <v>2442</v>
-      </c>
-      <c r="I9" s="36">
-        <v>2589</v>
-      </c>
-      <c r="J9" s="36">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="39">
-        <v>1142</v>
-      </c>
-      <c r="C10" s="36">
-        <v>1080</v>
-      </c>
-      <c r="D10" s="36">
-        <v>924</v>
-      </c>
-      <c r="E10" s="36">
-        <v>899</v>
-      </c>
-      <c r="F10" s="36">
-        <v>899</v>
-      </c>
-      <c r="G10" s="36">
-        <v>899</v>
-      </c>
-      <c r="H10" s="36">
-        <v>899</v>
-      </c>
-      <c r="I10" s="36">
-        <v>905</v>
-      </c>
-      <c r="J10" s="36">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B15" s="37"/>
+    <row r="13" spans="2:34">
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8">
+        <f>D4*About!$C$27</f>
+        <v>263937096887472.81</v>
+      </c>
+      <c r="D13" s="8">
+        <f>E4*About!$C$27</f>
+        <v>266116592305677.66</v>
+      </c>
+      <c r="E13" s="8">
+        <f>$D$13</f>
+        <v>266116592305677.66</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13" si="1">$D$13</f>
+        <v>266116592305677.66</v>
+      </c>
+      <c r="G13" s="8">
+        <f>$D$13+G9</f>
+        <v>268806497172329.75</v>
+      </c>
+      <c r="H13" s="8">
+        <f>$D$13+H9</f>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" ref="I13:AH13" si="2">$D$13+I9</f>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="S13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="Z13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="AA13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="AC13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="AD13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="AE13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="AG13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+      <c r="AH13" s="8">
+        <f t="shared" si="2"/>
+        <v>271496402038981.84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34">
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34">
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -2357,564 +2124,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E019130D-51AB-4364-AAC6-DB029A491610}">
-  <dimension ref="B2:AH16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="35" width="9.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3">
-        <v>2018</v>
-      </c>
-      <c r="D3">
-        <v>2019</v>
-      </c>
-      <c r="E3">
-        <v>2020</v>
-      </c>
-      <c r="H3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3">
-        <v>30000</v>
-      </c>
-      <c r="J3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3">
-        <v>2023</v>
-      </c>
-      <c r="N3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4">
-        <v>1923942</v>
-      </c>
-      <c r="D4">
-        <v>1962427</v>
-      </c>
-      <c r="E4">
-        <v>1978632</v>
-      </c>
-      <c r="H4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4">
-        <v>10000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M4" s="8">
-        <f>( (I3*About!$C$31)+(I4*About!$C$31) )/2</f>
-        <v>2689904866652.0874</v>
-      </c>
-      <c r="N4" s="8">
-        <f>M4*2</f>
-        <v>5379809733304.1748</v>
-      </c>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8">
-        <v>2023</v>
-      </c>
-      <c r="H8">
-        <v>2024</v>
-      </c>
-      <c r="I8" s="11">
-        <v>2025</v>
-      </c>
-      <c r="J8" s="11">
-        <v>2026</v>
-      </c>
-      <c r="K8" s="11">
-        <v>2027</v>
-      </c>
-      <c r="L8" s="11">
-        <v>2028</v>
-      </c>
-      <c r="M8" s="11">
-        <v>2029</v>
-      </c>
-      <c r="N8" s="11">
-        <v>2030</v>
-      </c>
-      <c r="O8" s="11">
-        <v>2031</v>
-      </c>
-      <c r="P8" s="11">
-        <v>2032</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>2033</v>
-      </c>
-      <c r="R8" s="11">
-        <v>2034</v>
-      </c>
-      <c r="S8" s="11">
-        <v>2035</v>
-      </c>
-      <c r="T8" s="11">
-        <v>2036</v>
-      </c>
-      <c r="U8" s="11">
-        <v>2037</v>
-      </c>
-      <c r="V8" s="11">
-        <v>2038</v>
-      </c>
-      <c r="W8" s="11">
-        <v>2039</v>
-      </c>
-      <c r="X8" s="11">
-        <v>2040</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>2041</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>2042</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>2043</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>2044</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>2045</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>2046</v>
-      </c>
-      <c r="AE8" s="11">
-        <v>2047</v>
-      </c>
-      <c r="AF8" s="11">
-        <v>2048</v>
-      </c>
-      <c r="AG8" s="11">
-        <v>2049</v>
-      </c>
-      <c r="AH8" s="11">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="8">
-        <f>$M$4</f>
-        <v>2689904866652.0874</v>
-      </c>
-      <c r="H9" s="8">
-        <f>$N$4</f>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" ref="I9:AH9" si="0">$N$4</f>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="K9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="M9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="N9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="O9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="P9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="Q9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="R9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="S9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="T9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="U9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="V9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="W9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="X9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="Y9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="Z9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="AA9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="AB9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="AC9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="AD9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="AE9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="AF9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="AG9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-      <c r="AH9" s="8">
-        <f t="shared" si="0"/>
-        <v>5379809733304.1748</v>
-      </c>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2019</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2020</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2021</v>
-      </c>
-      <c r="F12" s="11">
-        <v>2022</v>
-      </c>
-      <c r="G12" s="11">
-        <v>2023</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2024</v>
-      </c>
-      <c r="I12" s="11">
-        <v>2025</v>
-      </c>
-      <c r="J12" s="11">
-        <v>2026</v>
-      </c>
-      <c r="K12" s="11">
-        <v>2027</v>
-      </c>
-      <c r="L12" s="11">
-        <v>2028</v>
-      </c>
-      <c r="M12" s="11">
-        <v>2029</v>
-      </c>
-      <c r="N12" s="11">
-        <v>2030</v>
-      </c>
-      <c r="O12" s="11">
-        <v>2031</v>
-      </c>
-      <c r="P12" s="11">
-        <v>2032</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>2033</v>
-      </c>
-      <c r="R12" s="11">
-        <v>2034</v>
-      </c>
-      <c r="S12" s="11">
-        <v>2035</v>
-      </c>
-      <c r="T12" s="11">
-        <v>2036</v>
-      </c>
-      <c r="U12" s="11">
-        <v>2037</v>
-      </c>
-      <c r="V12" s="11">
-        <v>2038</v>
-      </c>
-      <c r="W12" s="11">
-        <v>2039</v>
-      </c>
-      <c r="X12" s="11">
-        <v>2040</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>2041</v>
-      </c>
-      <c r="Z12" s="11">
-        <v>2042</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>2043</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>2044</v>
-      </c>
-      <c r="AC12" s="11">
-        <v>2045</v>
-      </c>
-      <c r="AD12" s="11">
-        <v>2046</v>
-      </c>
-      <c r="AE12" s="11">
-        <v>2047</v>
-      </c>
-      <c r="AF12" s="11">
-        <v>2048</v>
-      </c>
-      <c r="AG12" s="11">
-        <v>2049</v>
-      </c>
-      <c r="AH12" s="11">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="8">
-        <f>D4*About!$C$31</f>
-        <v>263937096887472.81</v>
-      </c>
-      <c r="D13" s="8">
-        <f>E4*About!$C$31</f>
-        <v>266116592305677.66</v>
-      </c>
-      <c r="E13" s="8">
-        <f>$D$13</f>
-        <v>266116592305677.66</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" ref="F13" si="1">$D$13</f>
-        <v>266116592305677.66</v>
-      </c>
-      <c r="G13" s="8">
-        <f>$D$13+G9</f>
-        <v>268806497172329.75</v>
-      </c>
-      <c r="H13" s="8">
-        <f>$D$13+H9</f>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" ref="I13:AH13" si="2">$D$13+I9</f>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="K13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="N13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="O13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="P13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="Q13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="R13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="S13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="T13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="U13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="V13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="W13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="X13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="Y13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="Z13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="AA13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="AB13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="AC13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="AD13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="AE13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="AF13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="AG13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-      <c r="AH13" s="8">
-        <f t="shared" si="2"/>
-        <v>271496402038981.84</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3404DF-8854-4EA4-AA39-8C6EEBB7F910}">
   <dimension ref="A1:AB67"/>
   <sheetViews>
@@ -2922,27 +2131,27 @@
       <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.5" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="23.25">
       <c r="A1" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="P2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
@@ -2950,7 +2159,7 @@
       <c r="AA2" s="11"/>
       <c r="AB2" s="11"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
@@ -2972,7 +2181,7 @@
       </c>
       <c r="M3" s="16"/>
       <c r="P3" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q3">
         <v>2018</v>
@@ -2990,7 +2199,7 @@
         <v>2040</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X3" s="11">
         <v>2018</v>
@@ -3008,9 +2217,9 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="13">
         <v>2018</v>
@@ -3067,27 +2276,27 @@
         <v>7</v>
       </c>
       <c r="X4" s="27">
-        <f>Q4*About!$C$29</f>
+        <f>Q4*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Y4" s="27">
-        <f>R4*About!$C$29</f>
+        <f>R4*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Z4" s="27">
-        <f>S4*About!$C$29</f>
+        <f>S4*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AA4" s="27">
-        <f>T4*About!$C$29</f>
+        <f>T4*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AB4" s="27">
-        <f>U4*About!$C$29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+        <f>U4*About!$C$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -3107,7 +2316,7 @@
         <v>84</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="16">
         <v>87</v>
@@ -3151,27 +2360,27 @@
         <v>8</v>
       </c>
       <c r="X5" s="27">
-        <f>Q5*About!$C$29</f>
+        <f>Q5*About!$C$25</f>
         <v>2300086761980000</v>
       </c>
       <c r="Y5" s="27">
-        <f>R5*About!$C$29</f>
+        <f>R5*About!$C$25</f>
         <v>2379400098600000</v>
       </c>
       <c r="Z5" s="27">
-        <f>S5*About!$C$29</f>
+        <f>S5*About!$C$25</f>
         <v>2379400098600000</v>
       </c>
       <c r="AA5" s="27">
-        <f>T5*About!$C$29</f>
+        <f>T5*About!$C$25</f>
         <v>2300086761980000</v>
       </c>
       <c r="AB5" s="27">
-        <f>U5*About!$C$29</f>
+        <f>U5*About!$C$25</f>
         <v>1982833415500000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
@@ -3235,27 +2444,27 @@
         <v>1</v>
       </c>
       <c r="X6" s="27">
-        <f>Q6*About!$C$29</f>
+        <f>Q6*About!$C$25</f>
         <v>2101803420430000</v>
       </c>
       <c r="Y6" s="27">
-        <f>R6*About!$C$29</f>
+        <f>R6*About!$C$25</f>
         <v>2220773425360000</v>
       </c>
       <c r="Z6" s="27">
-        <f>S6*About!$C$29</f>
+        <f>S6*About!$C$25</f>
         <v>2419056766910000</v>
       </c>
       <c r="AA6" s="27">
-        <f>T6*About!$C$29</f>
+        <f>T6*About!$C$25</f>
         <v>2577683440150000</v>
       </c>
       <c r="AB6" s="27">
-        <f>U6*About!$C$29</f>
+        <f>U6*About!$C$25</f>
         <v>2815623450010000</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
@@ -3319,27 +2528,27 @@
         <v>9</v>
       </c>
       <c r="X7" s="27">
-        <f>Q7*About!$C$29</f>
+        <f>Q7*About!$C$25</f>
         <v>1110386712680000</v>
       </c>
       <c r="Y7" s="27">
-        <f>R7*About!$C$29</f>
+        <f>R7*About!$C$25</f>
         <v>1546610064090000</v>
       </c>
       <c r="Z7" s="27">
-        <f>S7*About!$C$29</f>
+        <f>S7*About!$C$25</f>
         <v>1229356717610000</v>
       </c>
       <c r="AA7" s="27">
-        <f>T7*About!$C$29</f>
+        <f>T7*About!$C$25</f>
         <v>1150043380990000</v>
       </c>
       <c r="AB7" s="27">
-        <f>U7*About!$C$29</f>
+        <f>U7*About!$C$25</f>
         <v>1070730044370000</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -3386,27 +2595,27 @@
         <v>10</v>
       </c>
       <c r="X8" s="27">
-        <f>Q8*About!$C$29</f>
+        <f>Q8*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Y8" s="27">
-        <f>R8*About!$C$29</f>
+        <f>R8*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Z8" s="27">
-        <f>S8*About!$C$29</f>
+        <f>S8*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AA8" s="27">
-        <f>T8*About!$C$29</f>
+        <f>T8*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AB8" s="27">
-        <f>U8*About!$C$29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+        <f>U8*About!$C$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
@@ -3453,27 +2662,27 @@
         <v>11</v>
       </c>
       <c r="X9" s="27">
-        <f>Q9*About!$C$29</f>
+        <f>Q9*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Y9" s="27">
-        <f>R9*About!$C$29</f>
+        <f>R9*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Z9" s="27">
-        <f>S9*About!$C$29</f>
+        <f>S9*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AA9" s="27">
-        <f>T9*About!$C$29</f>
+        <f>T9*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AB9" s="27">
-        <f>U9*About!$C$29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+        <f>U9*About!$C$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -3522,27 +2731,27 @@
         <v>12</v>
       </c>
       <c r="X10" s="27">
-        <f>Q10*About!$C$29</f>
+        <f>Q10*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Y10" s="27">
-        <f>R10*About!$C$29</f>
+        <f>R10*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Z10" s="27">
-        <f>S10*About!$C$29</f>
+        <f>S10*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AA10" s="27">
-        <f>T10*About!$C$29</f>
+        <f>T10*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AB10" s="27">
-        <f>U10*About!$C$29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <f>U10*About!$C$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -3589,27 +2798,27 @@
         <v>2</v>
       </c>
       <c r="X11" s="27">
-        <f>Q11*About!$C$29</f>
+        <f>Q11*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Y11" s="27">
-        <f>R11*About!$C$29</f>
+        <f>R11*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Z11" s="27">
-        <f>S11*About!$C$29</f>
+        <f>S11*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AA11" s="27">
-        <f>T11*About!$C$29</f>
+        <f>T11*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AB11" s="27">
-        <f>U11*About!$C$29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+        <f>U11*About!$C$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
@@ -3673,27 +2882,27 @@
         <v>3</v>
       </c>
       <c r="X12" s="27">
-        <f>Q12*About!$C$29</f>
+        <f>Q12*About!$C$25</f>
         <v>19086097047593.582</v>
       </c>
       <c r="Y12" s="27">
-        <f>R12*About!$C$29</f>
+        <f>R12*About!$C$25</f>
         <v>19086097047593.582</v>
       </c>
       <c r="Z12" s="27">
-        <f>S12*About!$C$29</f>
+        <f>S12*About!$C$25</f>
         <v>20994706752352.941</v>
       </c>
       <c r="AA12" s="27">
-        <f>T12*About!$C$29</f>
+        <f>T12*About!$C$25</f>
         <v>20994706752352.941</v>
       </c>
       <c r="AB12" s="27">
-        <f>U12*About!$C$29</f>
+        <f>U12*About!$C$25</f>
         <v>19086097047593.582</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="A13" s="12" t="s">
         <v>27</v>
       </c>
@@ -3757,27 +2966,27 @@
         <v>13</v>
       </c>
       <c r="X13" s="27">
-        <f>Q13*About!$C$29</f>
+        <f>Q13*About!$C$25</f>
         <v>45806632914224.594</v>
       </c>
       <c r="Y13" s="27">
-        <f>R13*About!$C$29</f>
+        <f>R13*About!$C$25</f>
         <v>45806632914224.594</v>
       </c>
       <c r="Z13" s="27">
-        <f>S13*About!$C$29</f>
+        <f>S13*About!$C$25</f>
         <v>43898023209465.242</v>
       </c>
       <c r="AA13" s="27">
-        <f>T13*About!$C$29</f>
+        <f>T13*About!$C$25</f>
         <v>41989413504705.883</v>
       </c>
       <c r="AB13" s="27">
-        <f>U13*About!$C$29</f>
+        <f>U13*About!$C$25</f>
         <v>40080803799946.523</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
@@ -3836,27 +3045,27 @@
         <v>14</v>
       </c>
       <c r="X14" s="27">
-        <f>Q14*About!$C$29</f>
+        <f>Q14*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Y14" s="27">
-        <f>R14*About!$C$29</f>
+        <f>R14*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Z14" s="27">
-        <f>S14*About!$C$29</f>
+        <f>S14*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AA14" s="27">
-        <f>T14*About!$C$29</f>
+        <f>T14*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AB14" s="27">
-        <f>U14*About!$C$29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+        <f>U14*About!$C$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
@@ -3903,27 +3112,27 @@
         <v>15</v>
       </c>
       <c r="X15" s="27">
-        <f>Q15*About!$C$29</f>
+        <f>Q15*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Y15" s="27">
-        <f>R15*About!$C$29</f>
+        <f>R15*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Z15" s="27">
-        <f>S15*About!$C$29</f>
+        <f>S15*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AA15" s="27">
-        <f>T15*About!$C$29</f>
+        <f>T15*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AB15" s="27">
-        <f>U15*About!$C$29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+        <f>U15*About!$C$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="12" t="s">
         <v>39</v>
       </c>
@@ -3977,27 +3186,27 @@
         <v>4</v>
       </c>
       <c r="X16" s="27">
-        <f>Q16*About!$C$29</f>
+        <f>Q16*About!$C$25</f>
         <v>17177487342834.223</v>
       </c>
       <c r="Y16" s="27">
-        <f>R16*About!$C$29</f>
+        <f>R16*About!$C$25</f>
         <v>317253346480000</v>
       </c>
       <c r="Z16" s="27">
-        <f>S16*About!$C$29</f>
+        <f>S16*About!$C$25</f>
         <v>317253346480000</v>
       </c>
       <c r="AA16" s="27">
-        <f>T16*About!$C$29</f>
+        <f>T16*About!$C$25</f>
         <v>317253346480000</v>
       </c>
       <c r="AB16" s="27">
-        <f>U16*About!$C$29</f>
+        <f>U16*About!$C$25</f>
         <v>317253346480000</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28">
       <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
@@ -4056,27 +3265,27 @@
         <v>22</v>
       </c>
       <c r="X17" s="27">
-        <f>Q17*About!$C$29</f>
+        <f>Q17*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Y17" s="27">
-        <f>R17*About!$C$29</f>
+        <f>R17*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Z17" s="27">
-        <f>S17*About!$C$29</f>
+        <f>S17*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AA17" s="27">
-        <f>T17*About!$C$29</f>
+        <f>T17*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AB17" s="27">
-        <f>U17*About!$C$29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+        <f>U17*About!$C$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
@@ -4135,27 +3344,27 @@
         <v>17</v>
       </c>
       <c r="X18" s="27">
-        <f>Q18*About!$C$29</f>
+        <f>Q18*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Y18" s="27">
-        <f>R18*About!$C$29</f>
+        <f>R18*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Z18" s="27">
-        <f>S18*About!$C$29</f>
+        <f>S18*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AA18" s="27">
-        <f>T18*About!$C$29</f>
+        <f>T18*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AB18" s="27">
-        <f>U18*About!$C$29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+        <f>U18*About!$C$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="H19" s="16" t="s">
         <v>72</v>
       </c>
@@ -4196,27 +3405,27 @@
         <v>18</v>
       </c>
       <c r="X19" s="27">
-        <f>Q19*About!$C$29</f>
+        <f>Q19*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Y19" s="27">
-        <f>R19*About!$C$29</f>
+        <f>R19*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Z19" s="27">
-        <f>S19*About!$C$29</f>
+        <f>S19*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AA19" s="27">
-        <f>T19*About!$C$29</f>
+        <f>T19*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AB19" s="27">
-        <f>U19*About!$C$29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+        <f>U19*About!$C$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="H20" s="16" t="s">
         <v>73</v>
       </c>
@@ -4257,29 +3466,29 @@
         <v>5</v>
       </c>
       <c r="X20" s="27">
-        <f>Q20*About!$C$29</f>
+        <f>Q20*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Y20" s="27">
-        <f>R20*About!$C$29</f>
+        <f>R20*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Z20" s="27">
-        <f>S20*About!$C$29</f>
+        <f>S20*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AA20" s="27">
-        <f>T20*About!$C$29</f>
+        <f>T20*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AB20" s="27">
-        <f>U20*About!$C$29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+        <f>U20*About!$C$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -4333,27 +3542,27 @@
         <v>19</v>
       </c>
       <c r="X21" s="27">
-        <f>Q21*About!$C$29</f>
+        <f>Q21*About!$C$25</f>
         <v>9543048523796.791</v>
       </c>
       <c r="Y21" s="27">
-        <f>R21*About!$C$29</f>
+        <f>R21*About!$C$25</f>
         <v>9543048523796.791</v>
       </c>
       <c r="Z21" s="27">
-        <f>S21*About!$C$29</f>
+        <f>S21*About!$C$25</f>
         <v>9543048523796.791</v>
       </c>
       <c r="AA21" s="27">
-        <f>T21*About!$C$29</f>
+        <f>T21*About!$C$25</f>
         <v>9543048523796.791</v>
       </c>
       <c r="AB21" s="27">
-        <f>U21*About!$C$29</f>
+        <f>U21*About!$C$25</f>
         <v>9543048523796.791</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28">
       <c r="A22" s="14"/>
       <c r="B22" s="15">
         <v>2018</v>
@@ -4397,27 +3606,27 @@
         <v>6</v>
       </c>
       <c r="X22" s="27">
-        <f>Q22*About!$C$29</f>
+        <f>Q22*About!$C$25</f>
         <v>436223351410000</v>
       </c>
       <c r="Y22" s="27">
-        <f>R22*About!$C$29</f>
+        <f>R22*About!$C$25</f>
         <v>436223351410000</v>
       </c>
       <c r="Z22" s="27">
-        <f>S22*About!$C$29</f>
+        <f>S22*About!$C$25</f>
         <v>436223351410000</v>
       </c>
       <c r="AA22" s="27">
-        <f>T22*About!$C$29</f>
+        <f>T22*About!$C$25</f>
         <v>436223351410000</v>
       </c>
       <c r="AB22" s="27">
-        <f>U22*About!$C$29</f>
+        <f>U22*About!$C$25</f>
         <v>436223351410000</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28">
       <c r="A23" s="14" t="s">
         <v>40</v>
       </c>
@@ -4458,27 +3667,27 @@
         <v>20</v>
       </c>
       <c r="X23" s="27">
-        <f>Q23*About!$C$29</f>
+        <f>Q23*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Y23" s="27">
-        <f>R23*About!$C$29</f>
+        <f>R23*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="Z23" s="27">
-        <f>S23*About!$C$29</f>
+        <f>S23*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AA23" s="27">
-        <f>T23*About!$C$29</f>
+        <f>T23*About!$C$25</f>
         <v>0</v>
       </c>
       <c r="AB23" s="27">
-        <f>U23*About!$C$29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+        <f>U23*About!$C$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="14" t="s">
         <v>41</v>
       </c>
@@ -4545,7 +3754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28">
       <c r="A25" s="14" t="s">
         <v>42</v>
       </c>
@@ -4581,7 +3790,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28">
       <c r="A26" s="14" t="s">
         <v>43</v>
       </c>
@@ -4619,10 +3828,10 @@
         <v>71</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -4648,7 +3857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28">
       <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
@@ -4676,7 +3885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28">
       <c r="A29" s="14" t="s">
         <v>45</v>
       </c>
@@ -4702,7 +3911,7 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -4733,7 +3942,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28">
       <c r="A31" s="14" t="s">
         <v>47</v>
       </c>
@@ -4766,7 +3975,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28">
       <c r="A32" s="14" t="s">
         <v>48</v>
       </c>
@@ -4809,7 +4018,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
@@ -4852,7 +4061,7 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
@@ -4883,7 +4092,7 @@
       <c r="S34" s="26"/>
       <c r="T34" s="26"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="14" t="s">
         <v>51</v>
       </c>
@@ -4914,7 +4123,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21">
       <c r="A36" s="14" t="s">
         <v>52</v>
       </c>
@@ -4945,7 +4154,7 @@
       <c r="S36" s="26"/>
       <c r="T36" s="26"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21">
       <c r="A37" s="14" t="s">
         <v>53</v>
       </c>
@@ -4976,7 +4185,7 @@
       <c r="S37" s="26"/>
       <c r="T37" s="26"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -5004,7 +4213,7 @@
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -5030,7 +4239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21">
       <c r="A40" s="15" t="s">
         <v>54</v>
       </c>
@@ -5059,7 +4268,7 @@
       </c>
       <c r="Q40" s="26"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21">
       <c r="A41" s="14"/>
       <c r="B41" s="15">
         <v>2018</v>
@@ -5095,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21">
       <c r="A42" s="14" t="s">
         <v>55</v>
       </c>
@@ -5133,7 +4342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21">
       <c r="A43" s="14" t="s">
         <v>56</v>
       </c>
@@ -5175,7 +4384,7 @@
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21">
       <c r="A44" s="14" t="s">
         <v>57</v>
       </c>
@@ -5195,7 +4404,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21">
       <c r="A45" s="14" t="s">
         <v>58</v>
       </c>
@@ -5215,7 +4424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21">
       <c r="A46" s="14" t="s">
         <v>59</v>
       </c>
@@ -5240,7 +4449,7 @@
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21">
       <c r="A47" s="14" t="s">
         <v>60</v>
       </c>
@@ -5260,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21">
       <c r="A48" s="14" t="s">
         <v>42</v>
       </c>
@@ -5284,7 +4493,7 @@
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -5292,27 +4501,27 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
+    <row r="52" spans="1:13">
+      <c r="A52" s="37"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="4"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -5325,7 +4534,7 @@
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -5338,7 +4547,7 @@
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -5351,7 +4560,7 @@
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5364,7 +4573,7 @@
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -5377,8 +4586,8 @@
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="49"/>
+    <row r="59" spans="1:13">
+      <c r="A59" s="37"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -5390,7 +4599,7 @@
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -5403,7 +4612,7 @@
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -5411,7 +4620,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -5419,7 +4628,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -5427,7 +4636,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -5435,15 +4644,15 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="49"/>
+    <row r="65" spans="1:6">
+      <c r="A65" s="37"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -5451,7 +4660,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -5466,7 +4675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9153084D-6C42-4FD8-A1B5-601C97634663}">
   <dimension ref="A1:AO99"/>
   <sheetViews>
@@ -5474,23 +4683,23 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
     <col min="10" max="11" width="9" customWidth="1"/>
-    <col min="12" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="21" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
-    <col min="23" max="41" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="41" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41">
       <c r="A1" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -5498,12 +4707,12 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="I1" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="11">
         <v>2018</v>
@@ -5521,7 +4730,7 @@
         <v>2040</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J2" s="9">
         <v>2019</v>
@@ -5620,7 +4829,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41">
       <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
@@ -5776,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41">
       <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
@@ -5932,7 +5141,7 @@
         <v>2015619146735824</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41">
       <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
@@ -6088,7 +5297,7 @@
         <v>3093057822579824</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41">
       <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
@@ -6244,7 +5453,7 @@
         <v>1071325164903982</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41">
       <c r="A7" s="24" t="s">
         <v>10</v>
       </c>
@@ -6400,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41">
       <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
@@ -6556,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41">
       <c r="A9" s="24" t="s">
         <v>12</v>
       </c>
@@ -6712,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41">
       <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
@@ -6868,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41">
       <c r="A11" s="24" t="s">
         <v>3</v>
       </c>
@@ -6953,7 +6162,7 @@
       </c>
       <c r="X11" s="8">
         <f t="shared" si="0"/>
-        <v>19977909904183.062</v>
+        <v>19977909904183.063</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="0"/>
@@ -6965,7 +6174,7 @@
       </c>
       <c r="AA11" s="8">
         <f t="shared" si="0"/>
-        <v>20091176646552.812</v>
+        <v>20091176646552.813</v>
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="0"/>
@@ -7024,7 +6233,7 @@
         <v>20619754777611.688</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41">
       <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
@@ -7053,7 +6262,7 @@
       </c>
       <c r="J12" s="8">
         <f t="shared" si="1"/>
-        <v>46441968204758.312</v>
+        <v>46441968204758.313</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="2"/>
@@ -7065,7 +6274,7 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" si="2"/>
-        <v>45613949260538.062</v>
+        <v>45613949260538.063</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="2"/>
@@ -7085,7 +6294,7 @@
       </c>
       <c r="R12" s="8">
         <f t="shared" si="2"/>
-        <v>44233917686837.562</v>
+        <v>44233917686837.563</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="2"/>
@@ -7105,7 +6314,7 @@
       </c>
       <c r="W12" s="8">
         <f t="shared" si="2"/>
-        <v>42853886113137.062</v>
+        <v>42853886113137.063</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="2"/>
@@ -7125,7 +6334,7 @@
       </c>
       <c r="AB12" s="8">
         <f t="shared" si="2"/>
-        <v>41473854539436.562</v>
+        <v>41473854539436.563</v>
       </c>
       <c r="AC12" s="8">
         <f t="shared" si="2"/>
@@ -7180,7 +6389,7 @@
         <v>37885772447815.25</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41">
       <c r="A13" s="24" t="s">
         <v>14</v>
       </c>
@@ -7336,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41">
       <c r="A14" s="24" t="s">
         <v>15</v>
       </c>
@@ -7492,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41">
       <c r="A15" s="24" t="s">
         <v>4</v>
       </c>
@@ -7648,7 +6857,7 @@
         <v>499427640226304</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41">
       <c r="A16" s="24" t="s">
         <v>22</v>
       </c>
@@ -7804,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41">
       <c r="A17" s="24" t="s">
         <v>17</v>
       </c>
@@ -7960,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
@@ -8116,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41">
       <c r="A19" s="24" t="s">
         <v>5</v>
       </c>
@@ -8272,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41">
       <c r="A20" s="24" t="s">
         <v>19</v>
       </c>
@@ -8428,7 +7637,7 @@
         <v>9543048523796.791</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41">
       <c r="A21" s="24" t="s">
         <v>6</v>
       </c>
@@ -8584,7 +7793,7 @@
         <v>436223351410000</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41">
       <c r="A22" s="24" t="s">
         <v>20</v>
       </c>
@@ -8740,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41">
       <c r="A23" s="24" t="s">
         <v>21</v>
       </c>
@@ -8859,7 +8068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41">
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -8893,17 +8102,17 @@
       <c r="AN24" s="11"/>
       <c r="AO24" s="11"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="11">
         <v>2018</v>
@@ -8921,7 +8130,7 @@
         <v>2040</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J27" s="9">
         <v>2019</v>
@@ -9020,7 +8229,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41">
       <c r="A28" s="24" t="s">
         <v>7</v>
       </c>
@@ -9176,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41">
       <c r="A29" s="24" t="s">
         <v>8</v>
       </c>
@@ -9198,136 +8407,136 @@
       <c r="I29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="8">
-        <f>Coal!U4</f>
-        <v>1084</v>
-      </c>
-      <c r="K29" s="8">
-        <f>Coal!V4</f>
-        <v>1068.388888888876</v>
-      </c>
-      <c r="L29" s="8">
-        <f>Coal!W4</f>
-        <v>950.15555555553874</v>
-      </c>
-      <c r="M29" s="8">
-        <f>Coal!X4</f>
-        <v>831.92222222223063</v>
-      </c>
-      <c r="N29" s="8">
-        <f>Coal!Y4</f>
-        <v>713.68888888889342</v>
-      </c>
-      <c r="O29" s="8">
-        <f>Coal!Z4</f>
-        <v>595.4555555555562</v>
-      </c>
-      <c r="P29" s="8">
-        <f>Coal!AA4</f>
-        <v>477.22222222221899</v>
-      </c>
-      <c r="Q29" s="8">
-        <f>Coal!AB4</f>
-        <v>358.98888888888177</v>
-      </c>
-      <c r="R29" s="8">
-        <f>Coal!AC4</f>
-        <v>240.75555555554456</v>
-      </c>
-      <c r="S29" s="8">
-        <f>Coal!AD4</f>
-        <v>122.52222222220735</v>
-      </c>
-      <c r="T29" s="8">
-        <f>Coal!AE4</f>
-        <v>4.2888888888701331</v>
-      </c>
-      <c r="U29" s="8">
-        <f>Coal!AF4</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="8">
-        <f>Coal!AG4</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="8">
-        <f>Coal!AH4</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="8">
-        <f>Coal!AI4</f>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="8">
-        <f>Coal!AJ4</f>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="8">
-        <f>Coal!AK4</f>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="8">
-        <f>Coal!AL4</f>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="8">
-        <f>Coal!AM4</f>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="8">
-        <f>Coal!AN4</f>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="8">
-        <f>Coal!AO4</f>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="8">
-        <f>Coal!AP4</f>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="8">
-        <f>Coal!AQ4</f>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="8">
-        <f>Coal!AR4</f>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="8">
-        <f>Coal!AS4</f>
-        <v>0</v>
-      </c>
-      <c r="AI29" s="8">
-        <f>Coal!AT4</f>
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="8">
-        <f>Coal!AU4</f>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="8">
-        <f>Coal!AV4</f>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="8">
-        <f>Coal!AW4</f>
-        <v>0</v>
-      </c>
-      <c r="AM29" s="8">
-        <f>Coal!AX4</f>
-        <v>0</v>
-      </c>
-      <c r="AN29" s="8">
-        <f>Coal!AY4</f>
-        <v>0</v>
-      </c>
-      <c r="AO29" s="8">
-        <f>Coal!AZ4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="J29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AC29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AD29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AG29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AL29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AM29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AN29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO29" s="8" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -9483,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41">
       <c r="A31" s="24" t="s">
         <v>9</v>
       </c>
@@ -9639,7 +8848,7 @@
         <v>1071325164903982</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41">
       <c r="A32" s="24" t="s">
         <v>10</v>
       </c>
@@ -9795,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41">
       <c r="A33" s="24" t="s">
         <v>11</v>
       </c>
@@ -9951,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41">
       <c r="A34" s="24" t="s">
         <v>12</v>
       </c>
@@ -10107,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41">
       <c r="A35" s="24" t="s">
         <v>2</v>
       </c>
@@ -10263,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41">
       <c r="A36" s="24" t="s">
         <v>3</v>
       </c>
@@ -10419,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41">
       <c r="A37" s="24" t="s">
         <v>13</v>
       </c>
@@ -10575,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41">
       <c r="A38" s="24" t="s">
         <v>14</v>
       </c>
@@ -10731,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41">
       <c r="A39" s="24" t="s">
         <v>15</v>
       </c>
@@ -10887,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41">
       <c r="A40" s="24" t="s">
         <v>4</v>
       </c>
@@ -11043,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41">
       <c r="A41" s="24" t="s">
         <v>22</v>
       </c>
@@ -11199,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41">
       <c r="A42" s="24" t="s">
         <v>17</v>
       </c>
@@ -11355,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41">
       <c r="A43" s="24" t="s">
         <v>18</v>
       </c>
@@ -11511,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41">
       <c r="A44" s="24" t="s">
         <v>5</v>
       </c>
@@ -11667,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41">
       <c r="A45" s="24" t="s">
         <v>19</v>
       </c>
@@ -11823,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41">
       <c r="A46" s="24" t="s">
         <v>6</v>
       </c>
@@ -11979,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41">
       <c r="A47" s="24" t="s">
         <v>20</v>
       </c>
@@ -12135,7 +11344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41">
       <c r="A48" s="24" t="s">
         <v>21</v>
       </c>
@@ -12286,24 +11495,24 @@
         <v>271496402038981.84</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41">
       <c r="A51" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="I51" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41">
       <c r="A52" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="11">
         <v>2018</v>
@@ -12321,7 +11530,7 @@
         <v>2040</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J52" s="9">
         <v>2019</v>
@@ -12420,7 +11629,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41">
       <c r="A53" s="24" t="s">
         <v>7</v>
       </c>
@@ -12576,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41">
       <c r="A54" s="24" t="s">
         <v>8</v>
       </c>
@@ -12732,7 +11941,7 @@
         <v>2015619146735824</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41">
       <c r="A55" s="24" t="s">
         <v>1</v>
       </c>
@@ -12888,7 +12097,7 @@
         <v>3093057822579824</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41">
       <c r="A56" s="24" t="s">
         <v>9</v>
       </c>
@@ -13044,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41">
       <c r="A57" s="24" t="s">
         <v>10</v>
       </c>
@@ -13200,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41">
       <c r="A58" s="24" t="s">
         <v>11</v>
       </c>
@@ -13356,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41">
       <c r="A59" s="24" t="s">
         <v>12</v>
       </c>
@@ -13512,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41">
       <c r="A60" s="24" t="s">
         <v>2</v>
       </c>
@@ -13668,7 +12877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41">
       <c r="A61" s="24" t="s">
         <v>3</v>
       </c>
@@ -13753,7 +12962,7 @@
       </c>
       <c r="X61" s="8">
         <f t="shared" si="9"/>
-        <v>19977909904183.062</v>
+        <v>19977909904183.063</v>
       </c>
       <c r="Y61" s="8">
         <f t="shared" si="9"/>
@@ -13765,7 +12974,7 @@
       </c>
       <c r="AA61" s="8">
         <f t="shared" si="9"/>
-        <v>20091176646552.812</v>
+        <v>20091176646552.813</v>
       </c>
       <c r="AB61" s="8">
         <f t="shared" si="9"/>
@@ -13824,7 +13033,7 @@
         <v>20619754777611.688</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41">
       <c r="A62" s="24" t="s">
         <v>13</v>
       </c>
@@ -13853,7 +13062,7 @@
       </c>
       <c r="J62" s="8">
         <f t="shared" si="11"/>
-        <v>46441968204758.312</v>
+        <v>46441968204758.313</v>
       </c>
       <c r="K62" s="8">
         <f t="shared" si="14"/>
@@ -13865,7 +13074,7 @@
       </c>
       <c r="M62" s="8">
         <f t="shared" si="14"/>
-        <v>45613949260538.062</v>
+        <v>45613949260538.063</v>
       </c>
       <c r="N62" s="8">
         <f t="shared" si="14"/>
@@ -13885,7 +13094,7 @@
       </c>
       <c r="R62" s="8">
         <f t="shared" si="14"/>
-        <v>44233917686837.562</v>
+        <v>44233917686837.563</v>
       </c>
       <c r="S62" s="8">
         <f t="shared" si="14"/>
@@ -13905,7 +13114,7 @@
       </c>
       <c r="W62" s="8">
         <f t="shared" si="14"/>
-        <v>42853886113137.062</v>
+        <v>42853886113137.063</v>
       </c>
       <c r="X62" s="8">
         <f t="shared" si="14"/>
@@ -13925,7 +13134,7 @@
       </c>
       <c r="AB62" s="8">
         <f t="shared" si="14"/>
-        <v>41473854539436.562</v>
+        <v>41473854539436.563</v>
       </c>
       <c r="AC62" s="8">
         <f t="shared" si="14"/>
@@ -13980,7 +13189,7 @@
         <v>37885772447815.25</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41">
       <c r="A63" s="24" t="s">
         <v>14</v>
       </c>
@@ -14136,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41">
       <c r="A64" s="24" t="s">
         <v>15</v>
       </c>
@@ -14292,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41">
       <c r="A65" s="24" t="s">
         <v>4</v>
       </c>
@@ -14448,7 +13657,7 @@
         <v>499427640226304</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41">
       <c r="A66" s="24" t="s">
         <v>22</v>
       </c>
@@ -14604,7 +13813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41">
       <c r="A67" s="24" t="s">
         <v>17</v>
       </c>
@@ -14760,7 +13969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41">
       <c r="A68" s="24" t="s">
         <v>18</v>
       </c>
@@ -14916,7 +14125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41">
       <c r="A69" s="24" t="s">
         <v>5</v>
       </c>
@@ -15072,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41">
       <c r="A70" s="24" t="s">
         <v>19</v>
       </c>
@@ -15228,7 +14437,7 @@
         <v>9543048523796.791</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41">
       <c r="A71" s="24" t="s">
         <v>6</v>
       </c>
@@ -15384,7 +14593,7 @@
         <v>436223351410000</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41">
       <c r="A72" s="24" t="s">
         <v>20</v>
       </c>
@@ -15540,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41">
       <c r="A73" s="24" t="s">
         <v>21</v>
       </c>
@@ -15691,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41">
       <c r="I74" s="11"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -15726,9 +14935,9 @@
       <c r="AN74" s="8"/>
       <c r="AO74" s="8"/>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41">
       <c r="A76" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -15736,12 +14945,12 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="I76" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41">
       <c r="A77" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" s="11">
         <v>2018</v>
@@ -15759,7 +14968,7 @@
         <v>2040</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J77" s="9">
         <v>2019</v>
@@ -15858,7 +15067,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41">
       <c r="A78" s="24" t="s">
         <v>7</v>
       </c>
@@ -16014,7 +15223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41">
       <c r="A79" s="24" t="s">
         <v>8</v>
       </c>
@@ -16170,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41">
       <c r="A80" s="24" t="s">
         <v>1</v>
       </c>
@@ -16326,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:41">
       <c r="A81" s="24" t="s">
         <v>9</v>
       </c>
@@ -16477,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:41">
       <c r="A82" s="24" t="s">
         <v>10</v>
       </c>
@@ -16633,7 +15842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:41">
       <c r="A83" s="24" t="s">
         <v>11</v>
       </c>
@@ -16789,7 +15998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:41">
       <c r="A84" s="24" t="s">
         <v>12</v>
       </c>
@@ -16945,7 +16154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:41">
       <c r="A85" s="24" t="s">
         <v>2</v>
       </c>
@@ -17101,7 +16310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:41">
       <c r="A86" s="24" t="s">
         <v>3</v>
       </c>
@@ -17257,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:41">
       <c r="A87" s="24" t="s">
         <v>13</v>
       </c>
@@ -17413,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:41">
       <c r="A88" s="24" t="s">
         <v>14</v>
       </c>
@@ -17569,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:41">
       <c r="A89" s="24" t="s">
         <v>15</v>
       </c>
@@ -17725,7 +16934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:41">
       <c r="A90" s="24" t="s">
         <v>4</v>
       </c>
@@ -17881,7 +17090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:41">
       <c r="A91" s="24" t="s">
         <v>22</v>
       </c>
@@ -18037,7 +17246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:41">
       <c r="A92" s="24" t="s">
         <v>17</v>
       </c>
@@ -18193,7 +17402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:41">
       <c r="A93" s="24" t="s">
         <v>18</v>
       </c>
@@ -18349,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:41">
       <c r="A94" s="24" t="s">
         <v>5</v>
       </c>
@@ -18505,7 +17714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:41">
       <c r="A95" s="24" t="s">
         <v>19</v>
       </c>
@@ -18661,7 +17870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:41">
       <c r="A96" s="24" t="s">
         <v>6</v>
       </c>
@@ -18817,7 +18026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:41">
       <c r="A97" s="24" t="s">
         <v>20</v>
       </c>
@@ -18973,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41">
       <c r="A98" s="24" t="s">
         <v>21</v>
       </c>
@@ -19129,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:41">
       <c r="I99" s="11"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -19170,24 +18379,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -19290,7 +18499,7 @@
       <c r="AH1" s="9"/>
       <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -19423,140 +18632,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="25">
-        <f>Calculations!J29</f>
-        <v>1084</v>
+        <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>Calculations!K29</f>
-        <v>1068.388888888876</v>
+        <v>0</v>
       </c>
       <c r="D3" s="25">
-        <f>Calculations!L29</f>
-        <v>950.15555555553874</v>
+        <v>0</v>
       </c>
       <c r="E3" s="25">
-        <f>Calculations!M29</f>
-        <v>831.92222222223063</v>
+        <v>0</v>
       </c>
       <c r="F3" s="25">
-        <f>Calculations!N29</f>
-        <v>713.68888888889342</v>
+        <v>0</v>
       </c>
       <c r="G3" s="25">
-        <f>Calculations!O29</f>
-        <v>595.4555555555562</v>
+        <v>0</v>
       </c>
       <c r="H3" s="25">
-        <f>Calculations!P29</f>
-        <v>477.22222222221899</v>
+        <v>0</v>
       </c>
       <c r="I3" s="25">
-        <f>Calculations!Q29</f>
-        <v>358.98888888888177</v>
+        <v>0</v>
       </c>
       <c r="J3" s="25">
-        <f>Calculations!R29</f>
-        <v>240.75555555554456</v>
+        <v>0</v>
       </c>
       <c r="K3" s="25">
-        <f>Calculations!S29</f>
-        <v>122.52222222220735</v>
+        <v>0</v>
       </c>
       <c r="L3" s="25">
-        <f>Calculations!T29</f>
-        <v>4.2888888888701331</v>
+        <v>0</v>
       </c>
       <c r="M3" s="25">
-        <f>Calculations!U29</f>
         <v>0</v>
       </c>
       <c r="N3" s="25">
-        <f>Calculations!V29</f>
         <v>0</v>
       </c>
       <c r="O3" s="25">
-        <f>Calculations!W29</f>
         <v>0</v>
       </c>
       <c r="P3" s="25">
-        <f>Calculations!X29</f>
         <v>0</v>
       </c>
       <c r="Q3" s="25">
-        <f>Calculations!Y29</f>
         <v>0</v>
       </c>
       <c r="R3" s="25">
-        <f>Calculations!Z29</f>
         <v>0</v>
       </c>
       <c r="S3" s="25">
-        <f>Calculations!AA29</f>
         <v>0</v>
       </c>
       <c r="T3" s="25">
-        <f>Calculations!AB29</f>
         <v>0</v>
       </c>
       <c r="U3" s="25">
-        <f>Calculations!AC29</f>
         <v>0</v>
       </c>
       <c r="V3" s="25">
-        <f>Calculations!AD29</f>
         <v>0</v>
       </c>
       <c r="W3" s="25">
-        <f>Calculations!AE29</f>
         <v>0</v>
       </c>
       <c r="X3" s="25">
-        <f>Calculations!AF29</f>
         <v>0</v>
       </c>
       <c r="Y3" s="25">
-        <f>Calculations!AG29</f>
         <v>0</v>
       </c>
       <c r="Z3" s="25">
-        <f>Calculations!AH29</f>
         <v>0</v>
       </c>
       <c r="AA3" s="25">
-        <f>Calculations!AI29</f>
         <v>0</v>
       </c>
       <c r="AB3" s="25">
-        <f>Calculations!AJ29</f>
         <v>0</v>
       </c>
       <c r="AC3" s="25">
-        <f>Calculations!AK29</f>
         <v>0</v>
       </c>
       <c r="AD3" s="25">
-        <f>Calculations!AL29</f>
         <v>0</v>
       </c>
       <c r="AE3" s="25">
-        <f>Calculations!AM29</f>
         <v>0</v>
       </c>
       <c r="AF3" s="25">
-        <f>Calculations!AN29</f>
         <v>0</v>
       </c>
       <c r="AG3" s="25">
-        <f>Calculations!AO29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -19689,7 +18866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -19822,7 +18999,7 @@
         <v>1071325164903982</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -19955,7 +19132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -20088,7 +19265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -20221,7 +19398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -20354,7 +19531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -20487,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -20620,7 +19797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -20753,7 +19930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -20886,7 +20063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -21019,7 +20196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -21152,7 +20329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -21285,7 +20462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -21418,7 +20595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -21551,7 +20728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -21684,7 +20861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -21817,7 +20994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -21950,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -22083,7 +21260,7 @@
         <v>271496402038981.84</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
@@ -22093,7 +21270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -22104,14 +21281,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
     <col min="3" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -22214,7 +21391,7 @@
       <c r="AH1" s="10"/>
       <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -22347,7 +21524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -22480,7 +21657,7 @@
         <v>2015619146735824</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -22613,7 +21790,7 @@
         <v>3093057822579824</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -22746,7 +21923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -22879,7 +22056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -23012,7 +22189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -23145,7 +22322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -23278,7 +22455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -23340,7 +22517,7 @@
       </c>
       <c r="P10" s="25">
         <f>Calculations!X61</f>
-        <v>19977909904183.062</v>
+        <v>19977909904183.063</v>
       </c>
       <c r="Q10" s="25">
         <f>Calculations!Y61</f>
@@ -23352,7 +22529,7 @@
       </c>
       <c r="S10" s="25">
         <f>Calculations!AA61</f>
-        <v>20091176646552.812</v>
+        <v>20091176646552.813</v>
       </c>
       <c r="T10" s="25">
         <f>Calculations!AB61</f>
@@ -23411,13 +22588,13 @@
         <v>20619754777611.688</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="25">
         <f>Calculations!J62</f>
-        <v>46441968204758.312</v>
+        <v>46441968204758.313</v>
       </c>
       <c r="C11" s="25">
         <f>Calculations!K62</f>
@@ -23429,7 +22606,7 @@
       </c>
       <c r="E11" s="25">
         <f>Calculations!M62</f>
-        <v>45613949260538.062</v>
+        <v>45613949260538.063</v>
       </c>
       <c r="F11" s="25">
         <f>Calculations!N62</f>
@@ -23449,7 +22626,7 @@
       </c>
       <c r="J11" s="25">
         <f>Calculations!R62</f>
-        <v>44233917686837.562</v>
+        <v>44233917686837.563</v>
       </c>
       <c r="K11" s="25">
         <f>Calculations!S62</f>
@@ -23469,7 +22646,7 @@
       </c>
       <c r="O11" s="25">
         <f>Calculations!W62</f>
-        <v>42853886113137.062</v>
+        <v>42853886113137.063</v>
       </c>
       <c r="P11" s="25">
         <f>Calculations!X62</f>
@@ -23489,7 +22666,7 @@
       </c>
       <c r="T11" s="25">
         <f>Calculations!AB62</f>
-        <v>41473854539436.562</v>
+        <v>41473854539436.563</v>
       </c>
       <c r="U11" s="25">
         <f>Calculations!AC62</f>
@@ -23544,7 +22721,7 @@
         <v>37885772447815.25</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -23677,7 +22854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -23810,7 +22987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -23943,7 +23120,7 @@
         <v>499427640226304</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -24076,7 +23253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -24209,7 +23386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -24342,7 +23519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -24475,7 +23652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -24608,7 +23785,7 @@
         <v>9543048523796.791</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -24741,7 +23918,7 @@
         <v>436223351410000</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -24874,7 +24051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -25007,7 +24184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
@@ -25017,7 +24194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -25028,16 +24205,16 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
     <col min="3" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="16.1640625" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" customWidth="1"/>
     <col min="35" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -25140,7 +24317,7 @@
       <c r="AH1" s="10"/>
       <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -25273,7 +24450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -25406,7 +24583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -25539,7 +24716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -25672,7 +24849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -25805,7 +24982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -25938,7 +25115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -26071,7 +25248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -26204,7 +25381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -26337,7 +25514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -26470,7 +25647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -26603,7 +25780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -26736,7 +25913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -26869,7 +26046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -27002,7 +26179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -27135,7 +26312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -27268,7 +26445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -27401,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -27534,7 +26711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -27667,7 +26844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -27800,7 +26977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -27933,7 +27110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
